--- a/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
+++ b/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.30</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002823</t>
+          <t>001569</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合A</t>
+          <t>泰信国策驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002824</t>
+          <t>002823</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合C</t>
+          <t>招商盛达灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.74</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001569</t>
+          <t>002824</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信国策驱动灵活配置混合</t>
+          <t>招商盛达灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.97</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002823</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合A</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002824</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合C</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>610006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>信达澳银产业升级混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>610004</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银中小盘混合</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>610006</t>
+          <t>610004</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银产业升级混合</t>
+          <t>信达澳银中小盘混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008655</t>
+          <t>002823</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商科技创新混合A</t>
+          <t>招商盛达灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008656</t>
+          <t>002824</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商科技创新混合C</t>
+          <t>招商盛达灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
+++ b/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,968 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4171</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
+++ b/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1938,4 +1939,2302 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1235</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8926</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5910</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
+++ b/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4237,4 +4238,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
+++ b/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4246,7 +4247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,17 +4258,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4277,14 +4298,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.23</v>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4293,14 +4336,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.8</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4309,14 +4374,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.68</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4325,13 +4412,949 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0785</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7468</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6671</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4792</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
+++ b/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5253,7 +5254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5264,17 +5265,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5284,14 +5305,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.92</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5300,14 +5343,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.23</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5316,14 +5381,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.8</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5332,14 +5419,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.68</v>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5348,13 +5457,1763 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7490</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5091</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
+++ b/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7096,7 +7097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7107,17 +7108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7127,14 +7148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.08</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7143,14 +7186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.92</v>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7159,14 +7224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.23</v>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7175,14 +7262,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.8</v>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7191,14 +7300,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.68</v>
       </c>
     </row>
     <row r="7">
@@ -7207,13 +7338,1133 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
+++ b/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>3.66</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>10.08</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>11.92</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>21.23</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>3.8</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.68</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -600,6 +617,3856 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9607</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6508</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6507</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5588</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4933</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4136</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014311</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合D</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013369</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012847</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013370</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014312</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大成优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>015688</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-0.0004</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1833,7 +5700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3675,7 +7542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4681,7 +8548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6979,7 +10846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7943,7 +11810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8265,7 +12132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
+++ b/数据整理/stocks/A股/科创板/688037-芯源微.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>16.18</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>3.66</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>10.08</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>11.92</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>21.23</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>3.8</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.68</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -616,7 +633,1941 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002823</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8784</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6486</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4867</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013369</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013370</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012847</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4466,7 +6417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5700,7 +7651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7542,7 +9493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8548,7 +10499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10846,7 +12797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11810,7 +13761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12130,212 +14081,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001404</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商移动互联网产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3974</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001569</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信国策驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002823</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002824</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>